--- a/data-master/airline-safety/custsatis.xlsx
+++ b/data-master/airline-safety/custsatis.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Anna\Documents\GitHub\dsc640\data-master\airline-safety\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8482166D-3C4D-4840-9481-2F12AB641695}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBBA3517-4C72-44E9-B47D-23DB6BDBFA4C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{C90CA5FD-68B4-4536-85B9-E991ABD6A611}"/>
+    <workbookView xWindow="-9132" yWindow="3588" windowWidth="17280" windowHeight="8964" xr2:uid="{C90CA5FD-68B4-4536-85B9-E991ABD6A611}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>Year</t>
   </si>
@@ -49,6 +49,9 @@
   </si>
   <si>
     <t>valued</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Average </t>
   </si>
 </sst>
 </file>
@@ -400,10 +403,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{67E7E5E5-A4D0-49EF-AFEE-926648EAAB85}">
-  <dimension ref="A1:E17"/>
+  <dimension ref="A1:E18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G19" sqref="G19"/>
+      <selection activeCell="I23" sqref="I23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -434,15 +437,15 @@
       </c>
       <c r="C2">
         <f ca="1">RANDBETWEEN(82,97)</f>
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D2">
         <f ca="1">RANDBETWEEN(80, 99)</f>
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="E2">
         <f ca="1">RANDBETWEEN(78,95)</f>
-        <v>78</v>
+        <v>88</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
@@ -454,15 +457,15 @@
       </c>
       <c r="C3">
         <f t="shared" ref="C3:C17" ca="1" si="0">RANDBETWEEN(82,97)</f>
-        <v>87</v>
+        <v>96</v>
       </c>
       <c r="D3">
         <f t="shared" ref="D3:D17" ca="1" si="1">RANDBETWEEN(80, 99)</f>
-        <v>88</v>
+        <v>99</v>
       </c>
       <c r="E3">
         <f t="shared" ref="E3:E17" ca="1" si="2">RANDBETWEEN(78,95)</f>
-        <v>79</v>
+        <v>87</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
@@ -474,15 +477,15 @@
       </c>
       <c r="C4">
         <f t="shared" ca="1" si="0"/>
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="D4">
         <f t="shared" ca="1" si="1"/>
-        <v>80</v>
+        <v>96</v>
       </c>
       <c r="E4">
         <f t="shared" ca="1" si="2"/>
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
@@ -498,11 +501,11 @@
       </c>
       <c r="D5">
         <f t="shared" ca="1" si="1"/>
-        <v>95</v>
+        <v>83</v>
       </c>
       <c r="E5">
         <f t="shared" ca="1" si="2"/>
-        <v>86</v>
+        <v>88</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
@@ -514,15 +517,15 @@
       </c>
       <c r="C6">
         <f t="shared" ca="1" si="0"/>
-        <v>87</v>
+        <v>94</v>
       </c>
       <c r="D6">
         <f t="shared" ca="1" si="1"/>
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="E6">
         <f t="shared" ca="1" si="2"/>
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
@@ -534,15 +537,15 @@
       </c>
       <c r="C7">
         <f t="shared" ca="1" si="0"/>
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="D7">
         <f t="shared" ca="1" si="1"/>
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="E7">
         <f t="shared" ca="1" si="2"/>
-        <v>87</v>
+        <v>82</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
@@ -554,15 +557,15 @@
       </c>
       <c r="C8">
         <f t="shared" ca="1" si="0"/>
+        <v>89</v>
+      </c>
+      <c r="D8">
+        <f t="shared" ca="1" si="1"/>
         <v>92</v>
       </c>
-      <c r="D8">
-        <f t="shared" ca="1" si="1"/>
-        <v>84</v>
-      </c>
       <c r="E8">
         <f t="shared" ca="1" si="2"/>
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
@@ -574,15 +577,15 @@
       </c>
       <c r="C9">
         <f t="shared" ca="1" si="0"/>
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="D9">
         <f t="shared" ca="1" si="1"/>
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="E9">
         <f t="shared" ca="1" si="2"/>
-        <v>95</v>
+        <v>87</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
@@ -594,15 +597,15 @@
       </c>
       <c r="C10">
         <f t="shared" ca="1" si="0"/>
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="D10">
         <f t="shared" ca="1" si="1"/>
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E10">
         <f t="shared" ca="1" si="2"/>
-        <v>95</v>
+        <v>81</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
@@ -614,7 +617,7 @@
       </c>
       <c r="C11">
         <f t="shared" ca="1" si="0"/>
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="D11">
         <f t="shared" ca="1" si="1"/>
@@ -622,7 +625,7 @@
       </c>
       <c r="E11">
         <f t="shared" ca="1" si="2"/>
-        <v>92</v>
+        <v>80</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
@@ -634,15 +637,15 @@
       </c>
       <c r="C12">
         <f t="shared" ca="1" si="0"/>
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="D12">
         <f t="shared" ca="1" si="1"/>
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="E12">
         <f t="shared" ca="1" si="2"/>
-        <v>83</v>
+        <v>79</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
@@ -658,11 +661,11 @@
       </c>
       <c r="D13">
         <f t="shared" ca="1" si="1"/>
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E13">
         <f t="shared" ca="1" si="2"/>
-        <v>82</v>
+        <v>92</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
@@ -674,15 +677,15 @@
       </c>
       <c r="C14">
         <f t="shared" ca="1" si="0"/>
-        <v>97</v>
+        <v>82</v>
       </c>
       <c r="D14">
         <f t="shared" ca="1" si="1"/>
+        <v>92</v>
+      </c>
+      <c r="E14">
+        <f t="shared" ca="1" si="2"/>
         <v>91</v>
-      </c>
-      <c r="E14">
-        <f t="shared" ca="1" si="2"/>
-        <v>80</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
@@ -694,15 +697,15 @@
       </c>
       <c r="C15">
         <f t="shared" ca="1" si="0"/>
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="D15">
         <f t="shared" ca="1" si="1"/>
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E15">
         <f t="shared" ca="1" si="2"/>
-        <v>89</v>
+        <v>91</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
@@ -714,15 +717,15 @@
       </c>
       <c r="C16">
         <f t="shared" ca="1" si="0"/>
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="D16">
         <f t="shared" ca="1" si="1"/>
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="E16">
         <f t="shared" ca="1" si="2"/>
-        <v>88</v>
+        <v>93</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
@@ -734,15 +737,36 @@
       </c>
       <c r="C17">
         <f t="shared" ca="1" si="0"/>
-        <v>92</v>
+        <v>83</v>
       </c>
       <c r="D17">
         <f t="shared" ca="1" si="1"/>
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="E17">
         <f t="shared" ca="1" si="2"/>
-        <v>79</v>
+        <v>85</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>5</v>
+      </c>
+      <c r="B18">
+        <f>AVERAGE(B2:B17)</f>
+        <v>89.3125</v>
+      </c>
+      <c r="C18">
+        <f t="shared" ref="C18:E18" ca="1" si="3">AVERAGE(C2:C17)</f>
+        <v>87.4375</v>
+      </c>
+      <c r="D18">
+        <f t="shared" ca="1" si="3"/>
+        <v>89.5625</v>
+      </c>
+      <c r="E18">
+        <f t="shared" ca="1" si="3"/>
+        <v>86.6875</v>
       </c>
     </row>
   </sheetData>

--- a/data-master/airline-safety/custsatis.xlsx
+++ b/data-master/airline-safety/custsatis.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Anna\Documents\GitHub\dsc640\data-master\airline-safety\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBBA3517-4C72-44E9-B47D-23DB6BDBFA4C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB1F4719-F9F8-453F-80BF-AEB3B1852E59}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-9132" yWindow="3588" windowWidth="17280" windowHeight="8964" xr2:uid="{C90CA5FD-68B4-4536-85B9-E991ABD6A611}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{C90CA5FD-68B4-4536-85B9-E991ABD6A611}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -406,7 +406,7 @@
   <dimension ref="A1:E18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I23" sqref="I23"/>
+      <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -437,15 +437,15 @@
       </c>
       <c r="C2">
         <f ca="1">RANDBETWEEN(82,97)</f>
-        <v>87</v>
+        <v>94</v>
       </c>
       <c r="D2">
         <f ca="1">RANDBETWEEN(80, 99)</f>
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="E2">
         <f ca="1">RANDBETWEEN(78,95)</f>
-        <v>88</v>
+        <v>81</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
@@ -465,7 +465,7 @@
       </c>
       <c r="E3">
         <f t="shared" ref="E3:E17" ca="1" si="2">RANDBETWEEN(78,95)</f>
-        <v>87</v>
+        <v>89</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
@@ -481,11 +481,11 @@
       </c>
       <c r="D4">
         <f t="shared" ca="1" si="1"/>
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="E4">
         <f t="shared" ca="1" si="2"/>
-        <v>92</v>
+        <v>86</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
@@ -497,15 +497,15 @@
       </c>
       <c r="C5">
         <f t="shared" ca="1" si="0"/>
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D5">
         <f t="shared" ca="1" si="1"/>
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="E5">
         <f t="shared" ca="1" si="2"/>
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
@@ -517,15 +517,15 @@
       </c>
       <c r="C6">
         <f t="shared" ca="1" si="0"/>
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D6">
         <f t="shared" ca="1" si="1"/>
+        <v>91</v>
+      </c>
+      <c r="E6">
+        <f t="shared" ca="1" si="2"/>
         <v>89</v>
-      </c>
-      <c r="E6">
-        <f t="shared" ca="1" si="2"/>
-        <v>84</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
@@ -537,15 +537,15 @@
       </c>
       <c r="C7">
         <f t="shared" ca="1" si="0"/>
-        <v>82</v>
+        <v>90</v>
       </c>
       <c r="D7">
         <f t="shared" ca="1" si="1"/>
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="E7">
         <f t="shared" ca="1" si="2"/>
-        <v>82</v>
+        <v>92</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
@@ -557,15 +557,15 @@
       </c>
       <c r="C8">
         <f t="shared" ca="1" si="0"/>
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="D8">
         <f t="shared" ca="1" si="1"/>
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="E8">
         <f t="shared" ca="1" si="2"/>
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
@@ -577,15 +577,15 @@
       </c>
       <c r="C9">
         <f t="shared" ca="1" si="0"/>
-        <v>84</v>
+        <v>94</v>
       </c>
       <c r="D9">
         <f t="shared" ca="1" si="1"/>
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="E9">
         <f t="shared" ca="1" si="2"/>
-        <v>87</v>
+        <v>91</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
@@ -597,15 +597,15 @@
       </c>
       <c r="C10">
         <f t="shared" ca="1" si="0"/>
-        <v>89</v>
+        <v>96</v>
       </c>
       <c r="D10">
         <f t="shared" ca="1" si="1"/>
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="E10">
         <f t="shared" ca="1" si="2"/>
-        <v>81</v>
+        <v>78</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
@@ -621,11 +621,11 @@
       </c>
       <c r="D11">
         <f t="shared" ca="1" si="1"/>
-        <v>81</v>
+        <v>95</v>
       </c>
       <c r="E11">
         <f t="shared" ca="1" si="2"/>
-        <v>80</v>
+        <v>88</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
@@ -637,7 +637,7 @@
       </c>
       <c r="C12">
         <f t="shared" ca="1" si="0"/>
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="D12">
         <f t="shared" ca="1" si="1"/>
@@ -645,7 +645,7 @@
       </c>
       <c r="E12">
         <f t="shared" ca="1" si="2"/>
-        <v>79</v>
+        <v>86</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
@@ -657,15 +657,15 @@
       </c>
       <c r="C13">
         <f t="shared" ca="1" si="0"/>
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D13">
         <f t="shared" ca="1" si="1"/>
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="E13">
         <f t="shared" ca="1" si="2"/>
-        <v>92</v>
+        <v>94</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
@@ -677,15 +677,15 @@
       </c>
       <c r="C14">
         <f t="shared" ca="1" si="0"/>
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="D14">
         <f t="shared" ca="1" si="1"/>
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="E14">
         <f t="shared" ca="1" si="2"/>
-        <v>91</v>
+        <v>85</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
@@ -697,15 +697,15 @@
       </c>
       <c r="C15">
         <f t="shared" ca="1" si="0"/>
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="D15">
         <f t="shared" ca="1" si="1"/>
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="E15">
         <f t="shared" ca="1" si="2"/>
-        <v>91</v>
+        <v>78</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
@@ -717,15 +717,15 @@
       </c>
       <c r="C16">
         <f t="shared" ca="1" si="0"/>
-        <v>85</v>
+        <v>96</v>
       </c>
       <c r="D16">
         <f t="shared" ca="1" si="1"/>
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="E16">
         <f t="shared" ca="1" si="2"/>
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
@@ -737,15 +737,15 @@
       </c>
       <c r="C17">
         <f t="shared" ca="1" si="0"/>
-        <v>83</v>
+        <v>93</v>
       </c>
       <c r="D17">
         <f t="shared" ca="1" si="1"/>
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="E17">
         <f t="shared" ca="1" si="2"/>
-        <v>85</v>
+        <v>82</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.3">
@@ -753,20 +753,16 @@
         <v>5</v>
       </c>
       <c r="B18">
-        <f>AVERAGE(B2:B17)</f>
-        <v>89.3125</v>
+        <v>89</v>
       </c>
       <c r="C18">
-        <f t="shared" ref="C18:E18" ca="1" si="3">AVERAGE(C2:C17)</f>
-        <v>87.4375</v>
+        <v>92</v>
       </c>
       <c r="D18">
-        <f t="shared" ca="1" si="3"/>
-        <v>89.5625</v>
+        <v>87</v>
       </c>
       <c r="E18">
-        <f t="shared" ca="1" si="3"/>
-        <v>86.6875</v>
+        <v>85</v>
       </c>
     </row>
   </sheetData>
